--- a/Fisica calculos.xlsx
+++ b/Fisica calculos.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diretórios\Zaldef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22899140\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAE1D17-7282-45B3-B6B7-F8F74BB3DC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BB7D88-0110-4369-8FDA-F34755E97CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{2C1F22F9-8DA6-4F27-8223-5F8B928661FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{2C1F22F9-8DA6-4F27-8223-5F8B928661FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Leis de N" sheetId="1" r:id="rId1"/>
     <sheet name="Queda Livre" sheetId="3" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>MRU/Repouso = Fres = 0</t>
   </si>
@@ -176,9 +176,6 @@
     <t>tempo</t>
   </si>
   <si>
-    <t>+4 pois o objeto subiu primeiro para depois descer</t>
-  </si>
-  <si>
     <t>Lançamento vertical</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Queda livre</t>
   </si>
   <si>
-    <t>Lançamento Vertival</t>
-  </si>
-  <si>
     <t>= Vo + a*t</t>
   </si>
   <si>
@@ -270,13 +264,76 @@
   </si>
   <si>
     <t>Lançamento Vertical P/Cima</t>
+  </si>
+  <si>
+    <t>Lançamento Vertical</t>
+  </si>
+  <si>
+    <t>Força M</t>
+  </si>
+  <si>
+    <t>ForçaP</t>
+  </si>
+  <si>
+    <t>Força P</t>
+  </si>
+  <si>
+    <t>Massa m</t>
+  </si>
+  <si>
+    <t>Massa M</t>
+  </si>
+  <si>
+    <t>Massa Ttl</t>
+  </si>
+  <si>
+    <t>coeficiente de atrito</t>
+  </si>
+  <si>
+    <t>Aceleração do sistema</t>
+  </si>
+  <si>
+    <t>Força do sistema</t>
+  </si>
+  <si>
+    <t>Força de atrito</t>
+  </si>
+  <si>
+    <t>Força Peso</t>
+  </si>
+  <si>
+    <t>Força normal</t>
+  </si>
+  <si>
+    <t>Força 1</t>
+  </si>
+  <si>
+    <t>Força 2</t>
+  </si>
+  <si>
+    <t>força x</t>
+  </si>
+  <si>
+    <t>Aceleração em X</t>
+  </si>
+  <si>
+    <t>Delta Tx</t>
+  </si>
+  <si>
+    <t>Delta Vx</t>
+  </si>
+  <si>
+    <t>Cos do ângulo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +356,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +431,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -849,11 +925,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,21 +1026,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -906,58 +1042,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -967,31 +1058,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1087,110 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1343,11 +1519,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
@@ -1359,14 +1535,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -1390,11 +1566,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="H4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1475,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92F13CE-3F06-4D1E-A7A2-EEFAB9B54F36}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,76 +1664,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="G1" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="G1" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="52"/>
-    </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="46" t="s">
+      <c r="L2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="48">
-        <v>20</v>
-      </c>
-      <c r="L3" s="65">
+      <c r="J3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="39">
         <f>POWER(K5,2)/(2*K4)</f>
-        <v>20</v>
-      </c>
-      <c r="M3" s="51"/>
+        <v>-4</v>
+      </c>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1565,284 +1739,279 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="48">
+      <c r="G4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="28">
         <v>25</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="39">
         <f>(H5*POWER(H7,2))/2</f>
         <v>0</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="49">
-        <v>10</v>
-      </c>
-      <c r="L4" s="66">
+      <c r="K4" s="29">
+        <v>-2</v>
+      </c>
+      <c r="L4" s="40">
         <f>K5/K6</f>
-        <v>10</v>
-      </c>
-      <c r="M4" s="51"/>
+        <v>-2</v>
+      </c>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="29">
+        <v>10</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="49">
-        <v>10</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="49">
-        <v>20</v>
-      </c>
-      <c r="L5" s="66">
+      <c r="K5" s="29">
+        <v>-4</v>
+      </c>
+      <c r="L5" s="40">
         <f>K6*K4</f>
-        <v>20</v>
-      </c>
-      <c r="M5" s="51"/>
+        <v>-4</v>
+      </c>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>59</v>
+      <c r="B6" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="66">
+      <c r="H6" s="29"/>
+      <c r="I6" s="40">
         <f>H5*H7</f>
         <v>0</v>
       </c>
-      <c r="J6" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="49">
+      <c r="J6" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="29">
         <v>2</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="40">
         <f>K5/K4</f>
         <v>2</v>
       </c>
-      <c r="M6" s="51"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="49">
+        <v>54</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="29">
         <v>4</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="40">
         <f>K6*2</f>
         <v>4</v>
       </c>
-      <c r="M7" s="51"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="G8" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="66">
+      <c r="A8" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="G8" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="40">
         <f>H6/H5</f>
         <v>0</v>
       </c>
-      <c r="J8" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="73"/>
-      <c r="L8" s="69">
+      <c r="J8" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="43">
         <f>K7/2</f>
         <v>2</v>
       </c>
-      <c r="M8" s="51"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="69">
+        <v>51</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="43">
         <f>SQRT(2*H4/H5)</f>
         <v>2.2360679774997898</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="51"/>
+      <c r="J9" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="39">
+        <f>K11*K4-K10</f>
+        <v>40</v>
+      </c>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62" t="s">
+      <c r="B10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="29">
+        <v>-50</v>
+      </c>
+      <c r="L10" s="40">
+        <f>K11*10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="H11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="48">
+      <c r="G12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="28">
         <v>7</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="35">
         <f>H15*H16+((POWER(H16,2)*H13)/2)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="47" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="49">
-        <v>-2</v>
-      </c>
-      <c r="L12" s="66"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="49">
+      <c r="H13" s="29">
         <v>10</v>
       </c>
-      <c r="I13" s="72"/>
-      <c r="J13" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="66">
-        <f>K11*K12</f>
-        <v>-10</v>
-      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="49">
+      <c r="G14" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="29">
         <v>12</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="66"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="49">
+      <c r="G15" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="29">
         <v>2</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="66"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="66">
+      <c r="G16" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="40">
         <f>(H14-H15)/H13</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="66">
+      <c r="G17" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="40">
         <f>H15+H13*H16</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="69">
+      <c r="G18" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="43">
         <f>SQRT(POWER(H15,2)+2*H13*H12)</f>
         <v>12</v>
       </c>
@@ -1863,270 +2032,416 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D5E641-1E4C-4AD3-846C-1EDC687262F8}">
-  <dimension ref="B1:T13"/>
+  <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="F1" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="34"/>
-      <c r="J1" s="39" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
+      <c r="I1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="37"/>
-      <c r="N1" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="37"/>
-      <c r="R1" s="39" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="M1" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="37"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="Q1" s="63"/>
+      <c r="R1" s="64"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26">
+      <c r="C2" s="69"/>
+      <c r="D2" s="21">
+        <v>9</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="21">
+        <v>-13</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F3" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="I3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="85">
+        <v>4</v>
+      </c>
+      <c r="K3" s="86"/>
+      <c r="M3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10">
+        <v>5</v>
+      </c>
+      <c r="O3" s="80"/>
+      <c r="P3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="R3" s="77"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="22">
+        <f>SQRT(POWER(D2,2)+POWER(D3,2))</f>
+        <v>15.811388300841896</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="I4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="85">
+        <v>39</v>
+      </c>
+      <c r="K4" s="86"/>
+      <c r="M4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="11">
+        <v>-2</v>
+      </c>
+      <c r="O4" s="81"/>
+      <c r="P4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>13.2</v>
+      </c>
+      <c r="R4" s="78"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="D5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="17" t="s">
+      <c r="E5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="76"/>
+      <c r="G5" s="92">
+        <f>F3*F4+G8</f>
+        <v>3.3539999999999992</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="85">
+        <v>6</v>
+      </c>
+      <c r="K5" s="86"/>
+      <c r="M5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="76"/>
+      <c r="O5" s="93">
+        <f>N4*N6+4</f>
+        <v>-4</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="17">
+        <f>Q3+Q4</f>
+        <v>13.2029</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6" s="15" t="e">
+        <f>C8/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="17">
+        <f>F9*F3</f>
+        <v>4.3</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88">
+        <f>J5*K7</f>
+        <v>-15</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="11">
+        <v>4</v>
+      </c>
+      <c r="O6" s="81"/>
+      <c r="P6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="R6" s="78"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="91">
+        <f>C8/C6</f>
+        <v>7.1869946822008615</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="76"/>
+      <c r="G7" s="17">
+        <f>COS(F10*PI()/180)*G6</f>
+        <v>3.7239092362730863</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="88">
+        <f>J8/J9</f>
+        <v>-2.5</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="76"/>
+      <c r="O7" s="93">
+        <f>N3*N4-N8</f>
+        <v>40</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>10</v>
+      </c>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="19">
+        <v>15.811388300841896</v>
+      </c>
+      <c r="D8" s="20">
+        <f>C7*C6</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="76"/>
+      <c r="G8" s="17">
+        <f>SIN(F10*PI()/180)*G6</f>
+        <v>2.1499999999999995</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="94">
+        <v>-5</v>
+      </c>
+      <c r="K8" s="86"/>
+      <c r="M8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="19">
+        <v>-50</v>
+      </c>
+      <c r="O8" s="82">
+        <f>N3*-10</f>
+        <v>-50</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="92">
+        <f>R5*R9</f>
+        <v>220.04833333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="11">
+        <v>10</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="I9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="94">
+        <v>2</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="P9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="17">
+        <f>Q7/Q6</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="19">
         <v>30</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="26">
-        <v>-8</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15">
-        <v>2</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="J3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="N3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="14">
-        <v>8</v>
-      </c>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="27">
-        <f>SQRT(POWER(D2,2)+POWER(D3,2))</f>
-        <v>9.4339811320566032</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="16">
-        <v>10</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="J4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="N4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4">
-        <v>-2</v>
-      </c>
-      <c r="P4" t="e">
-        <f>O6/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="22">
-        <f>G3*G4+H8</f>
-        <v>32.036300463040966</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5">
-        <f>O4*O6+4</f>
-        <v>-4</v>
-      </c>
-      <c r="Q5" s="44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2.8</v>
-      </c>
-      <c r="D6" s="20">
-        <f>C8/C7</f>
-        <v>2.8</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="22">
-        <f>G9*G3</f>
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6" t="e">
-        <f>O4/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16">
-        <v>3.3692789757345012</v>
-      </c>
-      <c r="D7" s="22">
-        <f>C8/C6</f>
-        <v>3.3692789757345012</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="22">
-        <f>COS(G10*PI()/180)*H6</f>
-        <v>15.972710200945857</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="24">
-        <v>9.4339811320566032</v>
-      </c>
-      <c r="D8" s="25">
-        <f>C7*C6</f>
-        <v>9.4339811320566032</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="22">
-        <f>SIN(G10*PI()/180)*H6</f>
-        <v>12.036300463040966</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="16">
-        <v>10</v>
-      </c>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="24">
-        <v>37</v>
-      </c>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="K13" s="14"/>
+      <c r="G10" s="79"/>
+      <c r="I10" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="89"/>
+      <c r="K10" s="95">
+        <f>DEGREES(ACOS(((K6-J3)/J4)))</f>
+        <v>119.15536542628296</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="17">
+        <f>Q6*R12</f>
+        <v>2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J11" s="9"/>
+      <c r="P11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="17">
+        <f>Q3*Q7</f>
+        <v>2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="20">
+        <f>Q3*R9</f>
+        <v>4.8333333333333332E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fisica calculos.xlsx
+++ b/Fisica calculos.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22899140\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diretórios\Zaldef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BB7D88-0110-4369-8FDA-F34755E97CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FF298D-B9FD-4CAA-A44A-F5E8BDA603A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{2C1F22F9-8DA6-4F27-8223-5F8B928661FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4" xr2:uid="{2C1F22F9-8DA6-4F27-8223-5F8B928661FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Leis de N" sheetId="1" r:id="rId1"/>
-    <sheet name="Queda Livre" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId2"/>
+    <sheet name="Queda Livre" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId4"/>
+    <sheet name="Planilha3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="169">
   <si>
     <t>MRU/Repouso = Fres = 0</t>
   </si>
@@ -146,12 +148,6 @@
     <t>Acelaração</t>
   </si>
   <si>
-    <t>Exercio 3</t>
-  </si>
-  <si>
-    <t>Exerciceo 5</t>
-  </si>
-  <si>
     <t>Calculo de Forças</t>
   </si>
   <si>
@@ -324,6 +320,933 @@
   </si>
   <si>
     <t>Cos do ângulo</t>
+  </si>
+  <si>
+    <t>Plano de estudos</t>
+  </si>
+  <si>
+    <t>Estudo do movimento</t>
+  </si>
+  <si>
+    <t>Leis de newton</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Variação de Posição</t>
+  </si>
+  <si>
+    <t>Delta S</t>
+  </si>
+  <si>
+    <t>Tempo final</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Tempo inicial</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>Variação de Tempo</t>
+  </si>
+  <si>
+    <t>Delta t</t>
+  </si>
+  <si>
+    <t>quilometro por hora</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>metro por segundo</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Velocidade Media</t>
+  </si>
+  <si>
+    <t>Movimento Uniforme</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Variaçao de posição</t>
+  </si>
+  <si>
+    <t>Conceitos Base</t>
+  </si>
+  <si>
+    <t>Velocidade Relativa</t>
+  </si>
+  <si>
+    <t>Aceleração Media</t>
+  </si>
+  <si>
+    <t>Variação de velocidade</t>
+  </si>
+  <si>
+    <t>Delta v</t>
+  </si>
+  <si>
+    <t>v0</t>
+  </si>
+  <si>
+    <t>Velocidade final</t>
+  </si>
+  <si>
+    <t>Posição inicial</t>
+  </si>
+  <si>
+    <t>Posição final</t>
+  </si>
+  <si>
+    <t>Função horaria do espaço</t>
+  </si>
+  <si>
+    <t>Equação de torriceli</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>vm</t>
+  </si>
+  <si>
+    <t>36 km/h = 10 m/s (/3.6)</t>
+  </si>
+  <si>
+    <t>1 m/s = 3,6 km/h (*3.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derivadas/Instaneas </t>
+  </si>
+  <si>
+    <t>Velocidade Instantanea</t>
+  </si>
+  <si>
+    <t>v(t)</t>
+  </si>
+  <si>
+    <t>Aceleração Instantanea</t>
+  </si>
+  <si>
+    <t>a(t)</t>
+  </si>
+  <si>
+    <t>s'(t)</t>
+  </si>
+  <si>
+    <t>Velocidade escalar media</t>
+  </si>
+  <si>
+    <t>Sméd</t>
+  </si>
+  <si>
+    <t>a(t)= 2</t>
+  </si>
+  <si>
+    <t>s - m</t>
+  </si>
+  <si>
+    <t>v - m/s</t>
+  </si>
+  <si>
+    <t>a - m/sˆ2</t>
+  </si>
+  <si>
+    <t>s(t) = 2-5t+tˆ2</t>
+  </si>
+  <si>
+    <t>v(t) = -5+2t</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Distancia total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> delta t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> S0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v'(t) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s''(t)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delta v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Delta t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˆ2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = v0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˆ2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ 2*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delta S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> S0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)ˆ2)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Delta S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Delta t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Va</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Vb </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sa-Sb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delta t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Atrito</t>
+  </si>
+  <si>
+    <t>Ângulo de Vetores</t>
+  </si>
+  <si>
+    <t>Movimento Uniformemente Variado</t>
+  </si>
+  <si>
+    <t>Movimento Retilineo Uniforme</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ou </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Delta t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>am</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Velocidade &amp; aceleração Media</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> S0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Delta t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v*t</t>
+    </r>
+  </si>
+  <si>
+    <t>vr</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -331,9 +1254,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,8 +1286,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +1386,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -920,19 +1869,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1000,11 +1936,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1026,7 +2041,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1056,12 +2070,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1087,6 +2099,103 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,6 +2206,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,6 +2238,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1138,15 +2262,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1159,38 +2274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,6 +2289,4061 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a - m/sˆ2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20717366442047408"/>
+                  <c:y val="-0.16693228346456693"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3CD-48D4-89CC-4F366B5BEEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1409103696"/>
+        <c:axId val="1435155200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1409103696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435155200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1435155200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1409103696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v - m/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19771256519941088"/>
+                  <c:y val="-0.12676857596268729"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-605E-4F0D-9783-E07CCEF901F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1269515376"/>
+        <c:axId val="1490096016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1269515376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1490096016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1490096016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269515376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s - m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14421052947759114"/>
+                  <c:y val="-0.76856396663288373"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4912-49C9-8576-164605358D35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1480003248"/>
+        <c:axId val="1493532448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1480003248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493532448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1493532448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1480003248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha3!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha3!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12B9-40F0-9203-DAAB0374229C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1521261695"/>
+        <c:axId val="1407072127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1521261695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1407072127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1407072127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1521261695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C053738-D59B-B7D6-7C4E-A42F8DE7BF00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D7A8FF-C712-E718-A165-A2C0271D9F84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1359</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>559252</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7C12A0-808B-5B0A-D78E-DEB73C816376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122250D3-44D7-5F4B-D04D-C73682CA2D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1505,10 +6643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D2A1F9-D5E1-4313-93C8-DD987AE5B490}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,11 +6657,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
       <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
@@ -1531,18 +6669,18 @@
         <v>20</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -1551,26 +6689,26 @@
         <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
       <c r="H4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1635,6 +6773,21 @@
         <v>10</v>
       </c>
       <c r="G7" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1648,8 +6801,465 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4F9496-41B1-4EEE-905C-3D65B29DBF63}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="87" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="77">
+        <v>-5</v>
+      </c>
+      <c r="I3" s="9">
+        <f>2-5*H3+H3^2</f>
+        <v>52</v>
+      </c>
+      <c r="J3" s="9">
+        <f>-5+2*H3</f>
+        <v>-15</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="H4" s="78">
+        <v>-4</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I13" si="0">2-5*H4+H4^2</f>
+        <v>38</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:J13" si="1">-5+2*H4</f>
+        <v>-13</v>
+      </c>
+      <c r="K4" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="78">
+        <v>-3</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="K5" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="78">
+        <v>-2</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="K6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="74"/>
+      <c r="F7" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="78">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="K7" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="78">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="K8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="H9" s="78">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="K9" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="78">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="K10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="F11" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="78">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="78">
+        <v>4</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="79">
+        <v>5</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92F13CE-3F06-4D1E-A7A2-EEFAB9B54F36}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
@@ -1663,75 +7273,72 @@
     <col min="10" max="10" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="G1" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="100"/>
+      <c r="L1" s="101"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="G1" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="32"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="36" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="39">
+      <c r="H3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="36">
         <f>POWER(K5,2)/(2*K4)</f>
         <v>-4</v>
       </c>
-      <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1739,279 +7346,273 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="28">
+      <c r="G4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="27">
         <v>25</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="36">
         <f>(H5*POWER(H7,2))/2</f>
         <v>0</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>-2</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="37">
         <f>K5/K6</f>
         <v>-2</v>
       </c>
-      <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <v>10</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="29">
+      <c r="I5" s="43"/>
+      <c r="J5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="28">
         <v>-4</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="37">
         <f>K6*K4</f>
         <v>-4</v>
       </c>
-      <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="40">
+      <c r="G6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="37">
         <f>H5*H7</f>
         <v>0</v>
       </c>
-      <c r="J6" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="29">
+      <c r="J6" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="28">
         <v>2</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="37">
         <f>K5/K4</f>
         <v>2</v>
       </c>
-      <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="29">
+      <c r="G7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="28">
         <v>4</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="37">
         <f>K6*2</f>
         <v>4</v>
       </c>
-      <c r="M7" s="31"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="G8" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="40">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="G8" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="37">
         <f>H6/H5</f>
         <v>0</v>
       </c>
-      <c r="J8" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="43">
+      <c r="J8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="L8" s="40">
         <f>K7/2</f>
         <v>2</v>
       </c>
-      <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="43">
+        <v>49</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="40">
         <f>SQRT(2*H4/H5)</f>
         <v>2.2360679774997898</v>
       </c>
-      <c r="J9" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="39">
+      <c r="J9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="36">
         <f>K11*K4-K10</f>
         <v>40</v>
       </c>
-      <c r="M9" s="31"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="29">
+        <v>45</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="28">
         <v>-50</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="37">
         <f>K11*10</f>
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="36" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="74" t="s">
+      <c r="H11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="45" t="s">
         <v>5</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="28">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="27">
         <v>7</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="32">
         <f>H15*H16+((POWER(H16,2)*H13)/2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="38" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <v>10</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="40"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="29">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="28">
         <v>12</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="40"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="29">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="28">
         <v>2</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="40">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="37">
         <f>(H14-H15)/H13</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="40">
+      <c r="G17" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="37">
         <f>H15+H13*H16</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="43">
+      <c r="G18" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="40">
         <f>SQRT(POWER(H15,2)+2*H13*H12)</f>
         <v>12</v>
       </c>
@@ -2030,420 +7631,587 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D5E641-1E4C-4AD3-846C-1EDC687262F8}">
-  <dimension ref="B1:R12"/>
+  <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
-      <c r="I1" s="62" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="M1" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="62" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="109"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="112"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="112"/>
+      <c r="P1" s="113"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="89">
+        <v>7</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="117"/>
+      <c r="D3" s="20">
+        <v>-12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="9">
+        <v>5</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="9">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="107"/>
+      <c r="D4" s="21">
+        <f>SQRT(POWER(D2,2)+POWER(D3,2))</f>
+        <v>13.892443989449804</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4">
+        <v>37</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="K4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="10">
+        <v>-2</v>
+      </c>
+      <c r="M4" s="51"/>
+      <c r="N4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="10">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="P4" s="48"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="59">
+        <f>F3*F4+G8</f>
+        <v>4.8601026629488713</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="55"/>
+      <c r="K5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="46"/>
+      <c r="M5" s="60">
+        <f>L4*L6+4</f>
+        <v>-6</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="46"/>
+      <c r="P5" s="16">
+        <f>O3+O4</f>
+        <v>17.103100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D6" s="14">
+        <f>C8/C7</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="16">
+        <f>F9*F3</f>
+        <v>4.2</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="88"/>
+      <c r="J6" s="56">
+        <f>I5*J7</f>
+        <v>-3.75</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="10">
+        <v>5</v>
+      </c>
+      <c r="M6" s="51"/>
+      <c r="N6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>13.892443989449804</v>
+      </c>
+      <c r="D7" s="66">
+        <f>C8/C6</f>
+        <v>5.3432476882499245</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="16">
+        <f>COS(F10*PI()/180)*G6</f>
+        <v>2.1631599146222285</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="88"/>
+      <c r="J7" s="56">
+        <f>I8/I9</f>
+        <v>-1.25</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="46"/>
+      <c r="M7" s="60">
+        <f>L3*L4-L8</f>
         <v>40</v>
       </c>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="64"/>
+      <c r="N7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="10">
+        <v>10</v>
+      </c>
+      <c r="P7" s="48"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="21">
-        <v>9</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>31</v>
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="18">
+        <v>13.892443989449804</v>
+      </c>
+      <c r="D8" s="19">
+        <f>C7*C6</f>
+        <v>36.120354372569494</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="16">
+        <f>SIN(F10*PI()/180)*G6</f>
+        <v>3.6001026629488715</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="K8" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="18">
+        <v>-50</v>
+      </c>
+      <c r="M8" s="52">
+        <f>L3*-10</f>
+        <v>-50</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="46"/>
+      <c r="P8" s="59">
+        <f>P5*P9</f>
+        <v>244.33000000000004</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="21">
-        <v>-13</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="G3" s="77"/>
-      <c r="I3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="85">
-        <v>4</v>
-      </c>
-      <c r="K3" s="86"/>
-      <c r="M3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="10">
-        <v>5</v>
-      </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="R3" s="77"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10">
+        <v>10</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="N9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="46"/>
+      <c r="P9" s="16">
+        <f>O7/O6</f>
+        <v>14.285714285714286</v>
+      </c>
     </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="22">
-        <f>SQRT(POWER(D2,2)+POWER(D3,2))</f>
-        <v>15.811388300841896</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11">
-        <v>2.8</v>
-      </c>
-      <c r="G4" s="78"/>
-      <c r="I4" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="85">
-        <v>39</v>
-      </c>
-      <c r="K4" s="86"/>
-      <c r="M4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="11">
-        <v>-2</v>
-      </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>13.2</v>
-      </c>
-      <c r="R4" s="78"/>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="18">
+        <v>59</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="57"/>
+      <c r="J10" s="61">
+        <f>DEGREES(ACOS(((J6-I3)/I4)))</f>
+        <v>100.51147428403566</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="46"/>
+      <c r="P10" s="16">
+        <f>O6*P12</f>
+        <v>3.1E-2</v>
+      </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="92">
-        <f>F3*F4+G8</f>
-        <v>3.3539999999999992</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="85">
-        <v>6</v>
-      </c>
-      <c r="K5" s="86"/>
-      <c r="M5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="93">
-        <f>N4*N6+4</f>
-        <v>-4</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="17">
-        <f>Q3+Q4</f>
-        <v>13.2029</v>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="16">
+        <f>O3*O7</f>
+        <v>3.1E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D6" s="15" t="e">
-        <f>C8/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="17">
-        <f>F9*F3</f>
-        <v>4.3</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="88">
-        <f>J5*K7</f>
-        <v>-15</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="11">
-        <v>4</v>
-      </c>
-      <c r="O6" s="81"/>
-      <c r="P6" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="R6" s="78"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="91">
-        <f>C8/C6</f>
-        <v>7.1869946822008615</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="17">
-        <f>COS(F10*PI()/180)*G6</f>
-        <v>3.7239092362730863</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="88">
-        <f>J8/J9</f>
-        <v>-2.5</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="76"/>
-      <c r="O7" s="93">
-        <f>N3*N4-N8</f>
-        <v>40</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>10</v>
-      </c>
-      <c r="R7" s="17"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="19">
-        <v>15.811388300841896</v>
-      </c>
-      <c r="D8" s="20">
-        <f>C7*C6</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="17">
-        <f>SIN(F10*PI()/180)*G6</f>
-        <v>2.1499999999999995</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="94">
-        <v>-5</v>
-      </c>
-      <c r="K8" s="86"/>
-      <c r="M8" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="19">
-        <v>-50</v>
-      </c>
-      <c r="O8" s="82">
-        <f>N3*-10</f>
-        <v>-50</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="92">
-        <f>R5*R9</f>
-        <v>220.04833333333335</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="11">
-        <v>10</v>
-      </c>
-      <c r="G9" s="78"/>
-      <c r="I9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="94">
-        <v>2</v>
-      </c>
-      <c r="K9" s="86"/>
-      <c r="P9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="17">
-        <f>Q7/Q6</f>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="19">
-        <v>30</v>
-      </c>
-      <c r="G10" s="79"/>
-      <c r="I10" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="89"/>
-      <c r="K10" s="95">
-        <f>DEGREES(ACOS(((K6-J3)/J4)))</f>
-        <v>119.15536542628296</v>
-      </c>
-      <c r="P10" s="16" t="s">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="17">
-        <f>Q6*R12</f>
-        <v>2.8999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J11" s="9"/>
-      <c r="P11" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="17">
-        <f>Q3*Q7</f>
-        <v>2.8999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P12" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="20">
-        <f>Q3*R9</f>
-        <v>4.8333333333333332E-2</v>
+      <c r="O12" s="58"/>
+      <c r="P12" s="19">
+        <f>O3*P9</f>
+        <v>4.4285714285714289E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C9B223-0321-498F-912E-09BE35F41D6D}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C3:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>3*A2 ^2 -2*A2 ^3</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>6*A2-6*A2 ^2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>6-12*A2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="0">3*A3 ^2 -2*A3 ^3</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="1">6*A3-6*A3 ^2</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="2">6-12*A3</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>-36</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>-80</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>-72</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>-175</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>-120</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>-324</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>-180</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-539</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>-252</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>-78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>